--- a/data/trans_bre/IP16A03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16A03-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 8,55</t>
+          <t>-16,35; 10,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 15,04</t>
+          <t>-7,44; 12,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,25; 9,51</t>
+          <t>-33,37; 9,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,13; 0,0</t>
+          <t>-37,66; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 5,88</t>
+          <t>-7,36; 4,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 5,39</t>
+          <t>-4,23; 5,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 1,65</t>
+          <t>-4,02; 1,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 3,53</t>
+          <t>-5,12; 3,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-66,02; 162,14</t>
+          <t>-72,99; 139,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-77,99; 476,75</t>
+          <t>-79,88; 480,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-86,64; 317,3</t>
+          <t>-100,0; 213,68</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 9,04</t>
+          <t>-13,68; 7,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 6,79</t>
+          <t>-8,14; 6,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,47; -1,65</t>
+          <t>-23,19; -1,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,08</t>
+          <t>0,0; 6,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 90,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 3,34</t>
+          <t>-6,37; 3,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 4,32</t>
+          <t>-2,99; 4,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 0,3</t>
+          <t>-7,47; 0,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 1,26</t>
+          <t>-4,34; 1,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-61,38; 68,83</t>
+          <t>-64,77; 64,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-56,19; 199,4</t>
+          <t>-60,37; 237,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-92,03; 33,29</t>
+          <t>-92,91; 39,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-90,68; 94,27</t>
+          <t>-88,76; 105,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16A03-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-12,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,24; 8,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,66; 12,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,65; 9,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,87; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,16</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,81%</t>
+          <t>-15,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>76,11%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-51,94%</t>
+          <t>-33,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-40,08%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 10,09</t>
+          <t>-7,17; 5,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 12,29</t>
+          <t>-3,97; 5,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,37; 9,88</t>
+          <t>-3,88; 1,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 0,0</t>
+          <t>-5,19; 2,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-67,69; 143,63</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-73,86; 669,35</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 189,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-11,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,87%</t>
+          <t>-34,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>-20,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-33,43%</t>
+          <t>-81,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-31,75%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 4,59</t>
+          <t>-12,45; 8,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 5,51</t>
+          <t>-8,15; 8,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,63</t>
+          <t>-22,93; -1,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 3,04</t>
+          <t>0,0; 4,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-72,99; 139,24</t>
+          <t>-100,0; 634,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-79,88; 480,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 37,9</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 213,68</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,09</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-34,97%</t>
+          <t>-20,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,26%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-81,9%</t>
+          <t>-62,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-51,17%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 7,92</t>
+          <t>-6,58; 3,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 6,63</t>
+          <t>-3,38; 4,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,19; -1,68</t>
+          <t>-7,58; -0,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,13</t>
+          <t>-4,95; 1,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,55; 72,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,61; 200,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 90,1</t>
+          <t>-93,5; 26,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,6; 82,78</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,17</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,48</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-20,15%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>16,05%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-62,93%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-44,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,37; 3,06</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,99; 4,21</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,47; 0,04</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,34; 1,55</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-64,77; 64,64</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-60,37; 237,17</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-92,91; 39,07</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-88,76; 105,96</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
